--- a/tableapp/fixtures/data_ex.xlsx
+++ b/tableapp/fixtures/data_ex.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senior-Project-65114540497\tableapp\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0BD45-008D-4480-B697-93B8B11073E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Table"/>
-    <sheet r:id="rId2" sheetId="2" name="CustomUser"/>
-    <sheet r:id="rId3" sheetId="3" name="Booking"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="CustomUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Booking" sheetId="3" r:id="rId3"/>
+    <sheet name="Menu" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -145,14 +152,70 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>ต้มยำกุ้ง</t>
+  </si>
+  <si>
+    <t>https://example.com/tomyum.jpg</t>
+  </si>
+  <si>
+    <t>tomyam</t>
+  </si>
+  <si>
+    <t>ผัดไทย</t>
+  </si>
+  <si>
+    <t>https://example.com/padthai.jpg</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>แกงเขียวหวานไก่</t>
+  </si>
+  <si>
+    <t>https://example.com/greencurry.jpg</t>
+  </si>
+  <si>
+    <t>kang</t>
+  </si>
+  <si>
+    <t>ไก่ทอด</t>
+  </si>
+  <si>
+    <t>https://example.com/friedchicken.jpg</t>
+  </si>
+  <si>
+    <t>tod</t>
+  </si>
+  <si>
+    <t>ส้มตำปูปลาร้า</t>
+  </si>
+  <si>
+    <t>https://example.com/somtum.jpg</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +234,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,62 +286,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,10 +352,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -322,71 +393,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,7 +485,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -437,11 +508,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -450,13 +521,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -466,7 +537,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -475,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -484,7 +555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,10 +563,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -560,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -568,131 +639,130 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -702,32 +772,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -736,64 +806,64 @@
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1">
@@ -806,24 +876,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,30 +908,29 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>4.499814814814815</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>4.4998148148148154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -868,13 +939,12 @@
       <c r="D3" s="4">
         <v>4.5414814814814815</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -883,28 +953,26 @@
       <c r="D4" s="4">
         <v>4.5831481481481475</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>4.624814814814815</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>4.6248148148148154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -913,13 +981,12 @@
       <c r="D6" s="4">
         <v>4.6664814814814815</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -928,28 +995,26 @@
       <c r="D7" s="4">
         <v>4.7081481481481475</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>4.749814814814815</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>4.7498148148148154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -958,13 +1023,12 @@
       <c r="D9" s="4">
         <v>4.7914814814814815</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -973,22 +1037,143 @@
       <c r="D10" s="4">
         <v>4.8331481481481475</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>4.874814814814815</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>4.8748148148148154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B988A8A-EC2A-4CDF-97B4-FA9309643A7B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14">
+        <v>150</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="14">
+        <v>120</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14">
+        <v>180</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="14">
+        <v>100</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tableapp/fixtures/data_ex.xlsx
+++ b/tableapp/fixtures/data_ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senior-Project-65114540497\tableapp\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0BD45-008D-4480-B697-93B8B11073E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24946D-E8F5-47CC-B805-F984F54ACCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -172,43 +172,58 @@
     <t>https://example.com/tomyum.jpg</t>
   </si>
   <si>
-    <t>tomyam</t>
-  </si>
-  <si>
     <t>ผัดไทย</t>
   </si>
   <si>
     <t>https://example.com/padthai.jpg</t>
   </si>
   <si>
-    <t>pad</t>
-  </si>
-  <si>
     <t>แกงเขียวหวานไก่</t>
   </si>
   <si>
     <t>https://example.com/greencurry.jpg</t>
   </si>
   <si>
-    <t>kang</t>
-  </si>
-  <si>
     <t>ไก่ทอด</t>
   </si>
   <si>
     <t>https://example.com/friedchicken.jpg</t>
   </si>
   <si>
-    <t>tod</t>
-  </si>
-  <si>
-    <t>ส้มตำปูปลาร้า</t>
-  </si>
-  <si>
     <t>https://example.com/somtum.jpg</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>ต้ม</t>
+  </si>
+  <si>
+    <t>ผัด</t>
+  </si>
+  <si>
+    <t>แกง</t>
+  </si>
+  <si>
+    <t>ทอด</t>
+  </si>
+  <si>
+    <t>เมนูแนะนำ</t>
+  </si>
+  <si>
+    <t>ต้มปลา</t>
+  </si>
+  <si>
+    <t>ผัดเผ็ดปลาดุก</t>
+  </si>
+  <si>
+    <t>แกงกะหรี่</t>
+  </si>
+  <si>
+    <t>ทอดหมู</t>
+  </si>
+  <si>
+    <t>ข้าวขาหมู</t>
+  </si>
+  <si>
+    <t>กุ้งชุบแป้งทอด</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B988A8A-EC2A-4CDF-97B4-FA9309643A7B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1104,75 +1119,160 @@
         <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="14">
         <v>120</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="14">
         <v>180</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="14">
         <v>100</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="14">
         <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14">
+        <v>91</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="14">
+        <v>92</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14">
+        <v>93</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14">
+        <v>94</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>61</v>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14">
+        <v>95</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tableapp/fixtures/data_ex.xlsx
+++ b/tableapp/fixtures/data_ex.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senior-Project-65114540497\tableapp\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BA916-C842-4B24-8F6A-81C9DC73EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Table"/>
-    <sheet r:id="rId2" sheetId="2" name="CustomUser"/>
-    <sheet r:id="rId3" sheetId="3" name="Booking"/>
-    <sheet r:id="rId4" sheetId="4" name="Category"/>
-    <sheet r:id="rId5" sheetId="5" name="Menu"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="CustomUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Booking" sheetId="3" r:id="rId3"/>
+    <sheet name="Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Menu" sheetId="5" r:id="rId5"/>
+    <sheet name="Zone" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -216,14 +223,40 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>zone_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ริมหน้าต่าง</t>
+  </si>
+  <si>
+    <t>นอกร้าน</t>
+  </si>
+  <si>
+    <t>โต๊ะติดริมหน้าต่างพร้อมวิวที่สวยงาม</t>
+  </si>
+  <si>
+    <t>โต๊ะนอกร้านสำหรับคนที่ชอบบรรยากาศ</t>
+  </si>
+  <si>
+    <t>ริมหน้าต่าง.png</t>
+  </si>
+  <si>
+    <t>ovdihko.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +274,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -287,74 +326,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,10 +413,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,71 +454,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,7 +546,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -521,11 +569,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -534,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -550,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -559,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -576,10 +624,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -644,140 +692,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s">
         <v>56</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -794,18 +876,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -820,64 +902,64 @@
       <c r="E1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="5">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="5">
         <v>1234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="5">
@@ -890,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -898,41 +980,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -951,11 +1033,11 @@
       <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -974,7 +1056,7 @@
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -984,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -992,65 +1074,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1060,24 +1142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,11 +1172,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1107,11 +1189,11 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1124,11 +1206,11 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1141,11 +1223,11 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1158,11 +1240,11 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="13.800000000000002">
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1175,11 +1257,11 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.800000000000002">
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1192,11 +1274,11 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="13.800000000000002">
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1209,11 +1291,11 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="13.800000000000002">
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1226,11 +1308,11 @@
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="13.800000000000002">
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1243,11 +1325,11 @@
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="13.800000000000002">
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1260,8 +1342,68 @@
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C12BF-122E-4EEF-8FE0-E4D74A06CB38}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
